--- a/BackTest/2020-01-19 BackTest XLM.xlsx
+++ b/BackTest/2020-01-19 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1226044.94534344</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1226044.94534344</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>65.31</v>
@@ -521,7 +521,7 @@
         <v>1226044.94534344</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>65.31</v>
@@ -562,7 +562,7 @@
         <v>1226044.94534344</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>65.31</v>
@@ -603,7 +603,7 @@
         <v>1210592.45974344</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>65.31</v>
@@ -640,7 +640,7 @@
         <v>1210821.8023223</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>65.23</v>
@@ -681,7 +681,7 @@
         <v>1221926.91601323</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>65.47</v>
@@ -722,7 +722,7 @@
         <v>1209160.31181323</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>65.8</v>
@@ -763,7 +763,7 @@
         <v>1220026.43901323</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>65.56999999999999</v>
@@ -804,7 +804,7 @@
         <v>1221464.43901323</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>65.81</v>
@@ -845,7 +845,7 @@
         <v>1225006.43901323</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>65.89</v>
@@ -886,7 +886,7 @@
         <v>1290753.65241323</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>65.90000000000001</v>
@@ -927,7 +927,7 @@
         <v>1290753.65241323</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>66</v>
@@ -968,7 +968,7 @@
         <v>1290753.65241323</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>66</v>
@@ -1009,7 +1009,7 @@
         <v>1294168.50581323</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>66</v>
@@ -1050,7 +1050,7 @@
         <v>1282879.66081323</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>66.3</v>
@@ -1091,7 +1091,7 @@
         <v>1246289.70281323</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>66.15000000000001</v>
@@ -1132,7 +1132,7 @@
         <v>1246305.70281323</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>65.89</v>
@@ -1212,9 +1212,11 @@
         <v>916231.5446676295</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>66.31999999999999</v>
+      </c>
       <c r="J21" t="n">
         <v>65.31</v>
       </c>
@@ -1368,9 +1370,11 @@
         <v>596509.5893209794</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>65.33</v>
+      </c>
       <c r="J25" t="n">
         <v>65.31</v>
       </c>
@@ -1407,9 +1411,11 @@
         <v>596968.5902209794</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>65.40000000000001</v>
+      </c>
       <c r="J26" t="n">
         <v>65.31</v>
       </c>
@@ -1446,9 +1452,11 @@
         <v>592968.5902209794</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>65.75</v>
+      </c>
       <c r="J27" t="n">
         <v>65.31</v>
       </c>
@@ -1485,9 +1493,11 @@
         <v>596968.5902209794</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>65.73999999999999</v>
+      </c>
       <c r="J28" t="n">
         <v>65.31</v>
       </c>
@@ -1524,7 +1534,7 @@
         <v>605968.5902209794</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>65.90000000000001</v>
@@ -1565,9 +1575,11 @@
         <v>632502.7157209794</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>65.92</v>
+      </c>
       <c r="J30" t="n">
         <v>65.31</v>
       </c>
@@ -1604,9 +1616,11 @@
         <v>637039.1210209794</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>66.12</v>
+      </c>
       <c r="J31" t="n">
         <v>65.31</v>
       </c>
@@ -1643,9 +1657,11 @@
         <v>747199.4855209794</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>66.26000000000001</v>
+      </c>
       <c r="J32" t="n">
         <v>65.31</v>
       </c>
@@ -1682,9 +1698,11 @@
         <v>741199.4855209794</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>66.37</v>
+      </c>
       <c r="J33" t="n">
         <v>65.31</v>
       </c>
@@ -1721,9 +1739,11 @@
         <v>747199.4855209794</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>66</v>
+      </c>
       <c r="J34" t="n">
         <v>65.31</v>
       </c>
@@ -1760,9 +1780,11 @@
         <v>752651.4855209794</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>66.05</v>
+      </c>
       <c r="J35" t="n">
         <v>65.31</v>
       </c>
@@ -1799,9 +1821,11 @@
         <v>760012.4855209794</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>66.27</v>
+      </c>
       <c r="J36" t="n">
         <v>65.31</v>
       </c>
@@ -1838,9 +1862,11 @@
         <v>782115.7768891593</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>66.31999999999999</v>
+      </c>
       <c r="J37" t="n">
         <v>65.31</v>
       </c>
@@ -1877,9 +1903,11 @@
         <v>829675.4228891593</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>66.37</v>
+      </c>
       <c r="J38" t="n">
         <v>65.31</v>
       </c>
@@ -1955,9 +1983,11 @@
         <v>751601.7254891592</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>66.20999999999999</v>
+      </c>
       <c r="J40" t="n">
         <v>65.31</v>
       </c>
@@ -1994,9 +2024,11 @@
         <v>751601.7254891592</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>66.08</v>
+      </c>
       <c r="J41" t="n">
         <v>65.31</v>
       </c>
@@ -2033,9 +2065,11 @@
         <v>703747.2881891592</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>66.08</v>
+      </c>
       <c r="J42" t="n">
         <v>65.31</v>
       </c>
@@ -2072,9 +2106,11 @@
         <v>703755.2881891592</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>66.05</v>
+      </c>
       <c r="J43" t="n">
         <v>65.31</v>
       </c>
@@ -2111,9 +2147,11 @@
         <v>703763.2881891592</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>66.27</v>
+      </c>
       <c r="J44" t="n">
         <v>65.31</v>
       </c>
@@ -2150,9 +2188,11 @@
         <v>704974.2881891592</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>66.31</v>
+      </c>
       <c r="J45" t="n">
         <v>65.31</v>
       </c>
@@ -2189,9 +2229,11 @@
         <v>712950.7224891592</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>66.31999999999999</v>
+      </c>
       <c r="J46" t="n">
         <v>65.31</v>
       </c>
@@ -2228,9 +2270,11 @@
         <v>1028021.631789159</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>66.44</v>
+      </c>
       <c r="J47" t="n">
         <v>65.31</v>
       </c>
@@ -2540,11 +2584,9 @@
         <v>1385102.417389159</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>67.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>65.31</v>
       </c>
@@ -2620,11 +2662,9 @@
         <v>1351671.782374629</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>67.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>65.31</v>
       </c>
@@ -3714,7 +3754,7 @@
         <v>2298680.474640709</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
@@ -3870,7 +3910,7 @@
         <v>2062911.385313298</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
@@ -3948,7 +3988,7 @@
         <v>1974917.903213298</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
@@ -3987,7 +4027,7 @@
         <v>1974917.903213298</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
@@ -4026,7 +4066,7 @@
         <v>1984120.180313298</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
@@ -4104,7 +4144,7 @@
         <v>1994362.383322998</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
@@ -4143,7 +4183,7 @@
         <v>1979302.322422998</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
@@ -4182,7 +4222,7 @@
         <v>1981898.732222999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
@@ -4260,7 +4300,7 @@
         <v>1978947.122208209</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
@@ -4299,7 +4339,7 @@
         <v>1994852.402808208</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
@@ -4338,7 +4378,7 @@
         <v>2001089.776766269</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
@@ -4416,7 +4456,7 @@
         <v>2004588.223066269</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
@@ -4455,7 +4495,7 @@
         <v>2004588.223066269</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
@@ -4494,7 +4534,7 @@
         <v>2293663.542566269</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
@@ -4572,7 +4612,7 @@
         <v>2423676.367859309</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
@@ -9174,9 +9214,11 @@
         <v>1271865.62791237</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>68.95999999999999</v>
+      </c>
       <c r="J225" t="n">
         <v>65.31</v>
       </c>
@@ -10110,9 +10152,11 @@
         <v>1188328.82150355</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>69</v>
+      </c>
       <c r="J249" t="n">
         <v>65.31</v>
       </c>
@@ -10305,9 +10349,11 @@
         <v>1083237.51770355</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>69.06</v>
+      </c>
       <c r="J254" t="n">
         <v>65.31</v>
       </c>
@@ -10344,9 +10390,11 @@
         <v>1086501.19880355</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>69.02</v>
+      </c>
       <c r="J255" t="n">
         <v>65.31</v>
       </c>
@@ -10383,9 +10431,11 @@
         <v>1086501.19880355</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>69.37</v>
+      </c>
       <c r="J256" t="n">
         <v>65.31</v>
       </c>
@@ -11709,9 +11759,11 @@
         <v>757795.9169392394</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>69.2</v>
+      </c>
       <c r="J290" t="n">
         <v>65.31</v>
       </c>
@@ -11787,9 +11839,11 @@
         <v>664676.7822392394</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>69.2</v>
+      </c>
       <c r="J292" t="n">
         <v>65.31</v>
       </c>
@@ -11865,9 +11919,11 @@
         <v>653804.4424392395</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>68.98999999999999</v>
+      </c>
       <c r="J294" t="n">
         <v>65.31</v>
       </c>
@@ -12099,9 +12155,11 @@
         <v>883419.0953685994</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>68.86</v>
+      </c>
       <c r="J300" t="n">
         <v>65.31</v>
       </c>
@@ -14868,7 +14926,7 @@
         <v>1875287.6378884</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
@@ -14876,15 +14934,13 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L371" t="n">
-        <v>1.070945490736487</v>
-      </c>
-      <c r="M371" t="n">
-        <v>1.009047692071768</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -14912,8 +14968,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14945,8 +15007,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14978,8 +15046,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15011,8 +15085,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15044,8 +15124,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15077,8 +15163,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15110,8 +15202,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15143,8 +15241,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15176,8 +15280,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15209,8 +15319,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15242,8 +15358,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15275,8 +15397,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15308,8 +15436,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15341,8 +15475,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15374,8 +15514,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15407,8 +15553,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15440,8 +15592,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15473,8 +15631,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15506,8 +15670,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15539,8 +15709,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15572,8 +15748,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15605,8 +15787,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15638,8 +15826,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15671,8 +15865,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15704,8 +15904,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15737,8 +15943,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15770,8 +15982,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15803,8 +16021,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15836,8 +16060,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15869,8 +16099,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15902,8 +16138,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15935,8 +16177,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15968,8 +16216,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16001,8 +16255,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16034,8 +16294,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16067,8 +16333,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16100,8 +16372,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16133,8 +16411,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16166,8 +16450,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16199,8 +16489,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16232,8 +16528,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16265,8 +16567,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16298,8 +16606,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16331,8 +16645,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16364,8 +16684,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16397,8 +16723,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16430,8 +16762,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16463,8 +16801,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16496,8 +16840,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16529,8 +16879,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16562,8 +16918,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16595,8 +16957,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16628,8 +16996,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16661,8 +17035,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16694,8 +17074,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16727,8 +17113,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16760,8 +17152,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16793,8 +17191,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16826,8 +17230,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16859,8 +17269,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16892,8 +17308,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16925,8 +17347,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16958,8 +17386,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16991,8 +17425,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17024,8 +17464,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17057,8 +17503,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17090,8 +17542,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17123,8 +17581,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17156,8 +17620,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17189,8 +17659,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17222,8 +17698,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17255,8 +17737,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17288,8 +17776,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17321,8 +17815,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17354,8 +17854,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17387,8 +17893,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17417,11 +17929,19 @@
         <v>1484267.958886209</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="J448" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17453,8 +17973,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17486,8 +18012,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17519,8 +18051,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17552,8 +18090,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17585,8 +18129,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17618,8 +18168,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17651,8 +18207,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17684,8 +18246,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17717,8 +18285,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17750,8 +18324,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17783,8 +18363,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17813,11 +18399,19 @@
         <v>1061285.631186209</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>66.77</v>
+      </c>
+      <c r="J460" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17846,11 +18440,19 @@
         <v>1061285.631186209</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>66.76000000000001</v>
+      </c>
+      <c r="J461" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17879,11 +18481,19 @@
         <v>1061285.631186209</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>66.76000000000001</v>
+      </c>
+      <c r="J462" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17912,11 +18522,19 @@
         <v>1054554.228086209</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>66.76000000000001</v>
+      </c>
+      <c r="J463" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17945,11 +18563,19 @@
         <v>1147483.552186209</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>66.75</v>
+      </c>
+      <c r="J464" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17981,8 +18607,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18014,8 +18646,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18047,8 +18685,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18080,8 +18724,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18113,8 +18763,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18146,8 +18802,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18179,8 +18841,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18212,8 +18880,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18245,8 +18919,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18278,8 +18958,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18311,8 +18997,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18344,8 +19036,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18377,8 +19075,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18410,8 +19114,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18443,8 +19153,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18476,8 +19192,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18509,8 +19231,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18542,8 +19270,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18575,8 +19309,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18608,8 +19348,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18641,8 +19387,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18674,8 +19426,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18707,8 +19465,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18740,8 +19504,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18773,8 +19543,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18806,8 +19582,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18839,8 +19621,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18872,8 +19660,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18905,8 +19699,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18938,8 +19738,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18971,8 +19777,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19004,8 +19816,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19037,8 +19855,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19070,8 +19894,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19103,8 +19933,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19136,8 +19972,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19169,8 +20011,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19202,8 +20050,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19235,8 +20089,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19268,8 +20128,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19301,8 +20167,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19334,8 +20206,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19367,8 +20245,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19400,8 +20284,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19433,8 +20323,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19466,8 +20362,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19499,8 +20401,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19532,8 +20440,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19565,8 +20479,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19598,8 +20518,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19631,8 +20557,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19664,8 +20596,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19697,8 +20635,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19730,8 +20674,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19760,11 +20710,19 @@
         <v>1441663.277950829</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>67.05</v>
+      </c>
+      <c r="J519" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19796,8 +20754,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19826,11 +20790,19 @@
         <v>1438640.641450829</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="J521" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19862,8 +20834,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19895,8 +20873,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19928,8 +20912,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19961,8 +20951,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19994,8 +20990,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20027,8 +21029,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20060,8 +21068,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20093,8 +21107,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20126,8 +21146,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20159,8 +21185,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20192,8 +21224,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20225,8 +21263,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20258,8 +21302,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20291,8 +21341,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20324,8 +21380,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20357,8 +21419,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20390,8 +21458,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20423,8 +21497,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20456,8 +21536,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20489,8 +21575,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20522,8 +21614,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20555,8 +21653,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20588,8 +21692,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20621,8 +21731,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20654,8 +21770,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20684,11 +21806,19 @@
         <v>940406.4082813089</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>66.20999999999999</v>
+      </c>
+      <c r="J547" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20717,11 +21847,19 @@
         <v>940406.4082813089</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="J548" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20750,11 +21888,19 @@
         <v>916115.9087813089</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="J549" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20783,11 +21929,19 @@
         <v>921082.365781309</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>66</v>
+      </c>
+      <c r="J550" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20819,8 +21973,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20852,8 +22012,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20885,8 +22051,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20918,8 +22090,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20951,8 +22129,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20984,8 +22168,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21017,8 +22207,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21050,8 +22246,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21083,8 +22285,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21116,8 +22324,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21149,8 +22363,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -21182,8 +22402,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -21215,8 +22441,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -21248,8 +22480,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -21281,8 +22519,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -21314,8 +22558,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21344,15 +22594,15 @@
         <v>957243.619681309</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
-      </c>
-      <c r="I567" t="n">
-        <v>66</v>
-      </c>
-      <c r="J567" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L567" t="n">
@@ -21383,12 +22633,12 @@
         <v>872566.920881309</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
-      </c>
-      <c r="I568" t="n">
-        <v>66</v>
-      </c>
-      <c r="J568" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21422,12 +22672,12 @@
         <v>836996.201081309</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
-      </c>
-      <c r="I569" t="n">
-        <v>65.69</v>
-      </c>
-      <c r="J569" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21461,12 +22711,14 @@
         <v>801953.8344813091</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I570" t="n">
         <v>65.65000000000001</v>
       </c>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21500,12 +22752,14 @@
         <v>744819.9620813091</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I571" t="n">
         <v>65.59</v>
       </c>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21539,12 +22793,14 @@
         <v>746309.7557813091</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I572" t="n">
         <v>65.04000000000001</v>
       </c>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21578,12 +22834,14 @@
         <v>745170.9563813091</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I573" t="n">
         <v>65.41</v>
       </c>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21617,12 +22875,14 @@
         <v>726692.847581309</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I574" t="n">
         <v>65.40000000000001</v>
       </c>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21656,12 +22916,14 @@
         <v>726585.165781309</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I575" t="n">
         <v>65.25</v>
       </c>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21695,12 +22957,14 @@
         <v>671171.4668813091</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I576" t="n">
         <v>65.2</v>
       </c>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21734,12 +22998,14 @@
         <v>670218.2111813091</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I577" t="n">
         <v>65.16</v>
       </c>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21773,12 +23039,14 @@
         <v>670483.6366813091</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I578" t="n">
         <v>65.09999999999999</v>
       </c>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21812,12 +23080,14 @@
         <v>671557.5590813091</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I579" t="n">
         <v>65.2</v>
       </c>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21851,12 +23121,14 @@
         <v>684357.5590813091</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I580" t="n">
         <v>65.31999999999999</v>
       </c>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21890,12 +23162,14 @@
         <v>684357.5590813091</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I581" t="n">
         <v>65.40000000000001</v>
       </c>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21929,10 +23203,14 @@
         <v>684481.0912813091</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="J582" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21966,10 +23244,14 @@
         <v>685437.5590813091</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>65.56999999999999</v>
+      </c>
+      <c r="J583" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22003,10 +23285,14 @@
         <v>703271.3117813091</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>65.58</v>
+      </c>
+      <c r="J584" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22040,10 +23326,14 @@
         <v>702757.4514813091</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>65.89</v>
+      </c>
+      <c r="J585" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22077,10 +23367,14 @@
         <v>743876.0806813091</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="J586" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22114,10 +23408,14 @@
         <v>743876.0806813091</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="J587" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22151,10 +23449,14 @@
         <v>743876.0806813091</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="J588" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22188,10 +23490,14 @@
         <v>748345.5695813091</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="J589" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22225,10 +23531,14 @@
         <v>747248.0070813091</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>66</v>
+      </c>
+      <c r="J590" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22262,10 +23572,14 @@
         <v>747248.0070813091</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>65.68000000000001</v>
+      </c>
+      <c r="J591" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22299,10 +23613,14 @@
         <v>747248.0070813091</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>65.68000000000001</v>
+      </c>
+      <c r="J592" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22336,10 +23654,14 @@
         <v>747248.0070813091</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>65.68000000000001</v>
+      </c>
+      <c r="J593" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22373,12 +23695,14 @@
         <v>755885.9903813091</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I594" t="n">
         <v>65.68000000000001</v>
       </c>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22412,12 +23736,14 @@
         <v>754017.0846813091</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I595" t="n">
         <v>65.79000000000001</v>
       </c>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22451,12 +23777,14 @@
         <v>782655.201281309</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I596" t="n">
         <v>65.58</v>
       </c>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22490,12 +23818,14 @@
         <v>782655.201281309</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I597" t="n">
         <v>65.79000000000001</v>
       </c>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22529,12 +23859,14 @@
         <v>766610.123081309</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I598" t="n">
         <v>65.79000000000001</v>
       </c>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22568,12 +23900,14 @@
         <v>751610.123081309</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I599" t="n">
         <v>65.68000000000001</v>
       </c>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22607,12 +23941,14 @@
         <v>716923.140481309</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I600" t="n">
         <v>65.42</v>
       </c>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22646,12 +23982,14 @@
         <v>716923.140481309</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I601" t="n">
         <v>65.40000000000001</v>
       </c>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22685,12 +24023,14 @@
         <v>716074.819481309</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I602" t="n">
         <v>65.40000000000001</v>
       </c>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22724,12 +24064,14 @@
         <v>716074.819481309</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I603" t="n">
         <v>65.29000000000001</v>
       </c>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22763,12 +24105,14 @@
         <v>715008.5360813091</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I604" t="n">
         <v>65.29000000000001</v>
       </c>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22802,12 +24146,14 @@
         <v>714475.7292813091</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I605" t="n">
         <v>65.15000000000001</v>
       </c>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22841,12 +24187,14 @@
         <v>714633.4082813091</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I606" t="n">
         <v>65.14</v>
       </c>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22880,12 +24228,14 @@
         <v>716148.1921813091</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I607" t="n">
         <v>65.29000000000001</v>
       </c>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22919,12 +24269,14 @@
         <v>713410.8772813091</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I608" t="n">
         <v>65.66</v>
       </c>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22958,12 +24310,14 @@
         <v>713510.8772813091</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I609" t="n">
         <v>65.37</v>
       </c>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22997,10 +24351,14 @@
         <v>713555.8582813091</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>65.43000000000001</v>
+      </c>
+      <c r="J610" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23034,10 +24392,14 @@
         <v>770597.5564813091</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>65.56</v>
+      </c>
+      <c r="J611" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23071,10 +24433,14 @@
         <v>790712.9854813091</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>65.93000000000001</v>
+      </c>
+      <c r="J612" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23108,10 +24474,14 @@
         <v>790712.9854813091</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>66.17</v>
+      </c>
+      <c r="J613" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23148,7 +24518,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23185,7 +24557,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23222,7 +24596,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23259,7 +24635,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23296,7 +24674,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23333,7 +24713,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23370,7 +24752,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23407,7 +24791,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23441,10 +24827,14 @@
         <v>874216.532464309</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="J622" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23478,10 +24868,14 @@
         <v>878753.061164309</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>66.75</v>
+      </c>
+      <c r="J623" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23515,12 +24909,14 @@
         <v>891330.800564309</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I624" t="n">
         <v>66.78</v>
       </c>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23554,12 +24950,14 @@
         <v>883482.866464309</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I625" t="n">
         <v>66.84</v>
       </c>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23593,12 +24991,14 @@
         <v>884132.866464309</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I626" t="n">
         <v>66.78</v>
       </c>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23632,12 +25032,14 @@
         <v>884132.866464309</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I627" t="n">
         <v>66.84</v>
       </c>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23671,12 +25073,14 @@
         <v>884132.866464309</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I628" t="n">
         <v>66.84</v>
       </c>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23710,12 +25114,14 @@
         <v>943569.5149643091</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I629" t="n">
         <v>66.84</v>
       </c>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23749,12 +25155,14 @@
         <v>943569.5149643091</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I630" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23788,12 +25196,14 @@
         <v>943569.5149643091</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I631" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23827,12 +25237,14 @@
         <v>1052731.354273959</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I632" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23866,10 +25278,14 @@
         <v>1051241.354273959</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>67.15000000000001</v>
+      </c>
+      <c r="J633" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23906,7 +25322,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23943,7 +25361,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23980,7 +25400,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24017,7 +25439,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24054,7 +25478,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24091,7 +25517,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24128,7 +25556,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24165,7 +25595,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24202,7 +25634,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24239,7 +25673,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24276,7 +25712,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24313,7 +25751,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24350,7 +25790,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24387,7 +25829,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24424,7 +25868,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24461,7 +25907,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24498,7 +25946,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24535,7 +25985,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24572,7 +26024,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24609,7 +26063,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24646,7 +26102,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24683,7 +26141,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24717,16 +26177,20 @@
         <v>907215.0232582688</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L656" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L656" t="n">
+        <v>1</v>
+      </c>
       <c r="M656" t="inlineStr"/>
     </row>
     <row r="657">
@@ -24752,11 +26216,17 @@
         <v>866818.5079582689</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -24785,11 +26255,17 @@
         <v>786106.3679582688</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -24818,11 +26294,17 @@
         <v>-212988.5141417312</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -24854,8 +26336,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -24887,8 +26375,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -24920,8 +26414,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -24950,15 +26450,15 @@
         <v>-268642.5646417312</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
-      </c>
-      <c r="I663" t="n">
-        <v>68.42</v>
-      </c>
-      <c r="J663" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L663" t="n">
@@ -24989,12 +26489,12 @@
         <v>-255017.5801417312</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
-      </c>
-      <c r="I664" t="n">
-        <v>68.22</v>
-      </c>
-      <c r="J664" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25028,12 +26528,12 @@
         <v>-255017.5801417312</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
-      </c>
-      <c r="I665" t="n">
-        <v>68.48999999999999</v>
-      </c>
-      <c r="J665" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25067,12 +26567,14 @@
         <v>-263817.5801417312</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I666" t="n">
         <v>68.48999999999999</v>
       </c>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25106,12 +26608,14 @@
         <v>-165173.8283417312</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I667" t="n">
         <v>68.48</v>
       </c>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25145,12 +26649,14 @@
         <v>-180244.9125417312</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I668" t="n">
         <v>68.48999999999999</v>
       </c>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25184,12 +26690,14 @@
         <v>-151346.0775417312</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I669" t="n">
         <v>68.45</v>
       </c>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25223,12 +26731,14 @@
         <v>-147630.7708417312</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I670" t="n">
         <v>68.48999999999999</v>
       </c>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25262,10 +26772,14 @@
         <v>-147630.7708417312</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>68.64</v>
+      </c>
+      <c r="J671" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25299,10 +26813,14 @@
         <v>-147630.7708417312</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>68.64</v>
+      </c>
+      <c r="J672" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25336,10 +26854,14 @@
         <v>-92978.20414173123</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>68.64</v>
+      </c>
+      <c r="J673" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25373,10 +26895,14 @@
         <v>-72637.77624173123</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>69.09</v>
+      </c>
+      <c r="J674" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25410,10 +26936,14 @@
         <v>-72637.77624173123</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>69.11</v>
+      </c>
+      <c r="J675" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25447,12 +26977,14 @@
         <v>-38237.31534173124</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I676" t="n">
         <v>69.11</v>
       </c>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25486,10 +27018,14 @@
         <v>-38237.31534173124</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="J677" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25526,7 +27062,9 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25563,7 +27101,9 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25600,7 +27140,9 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25637,7 +27179,9 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25674,7 +27218,9 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25711,7 +27257,9 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25748,7 +27296,9 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25785,7 +27335,9 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25822,7 +27374,9 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25856,10 +27410,14 @@
         <v>116621.0652835688</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>69.31</v>
+      </c>
+      <c r="J687" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25896,7 +27454,9 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25933,7 +27493,9 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25970,7 +27532,9 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26007,7 +27571,9 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26044,7 +27610,9 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26081,7 +27649,9 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26118,7 +27688,9 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26155,7 +27727,9 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26192,7 +27766,9 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26229,7 +27805,9 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26266,7 +27844,9 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26303,7 +27883,9 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26340,7 +27922,9 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26377,7 +27961,9 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26414,7 +28000,9 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26451,7 +28039,9 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26488,7 +28078,9 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26525,7 +28117,9 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26562,7 +28156,9 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26599,7 +28195,9 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26636,7 +28234,9 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26673,7 +28273,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26710,7 +28312,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26747,7 +28351,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26784,7 +28390,9 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26821,7 +28429,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26855,10 +28465,14 @@
         <v>311910.3623715788</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="J714" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26892,10 +28506,14 @@
         <v>310833.3623715788</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>69.91</v>
+      </c>
+      <c r="J715" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26929,10 +28547,14 @@
         <v>413735.5195715788</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>69.89</v>
+      </c>
+      <c r="J716" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26966,10 +28588,14 @@
         <v>558557.6416715789</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="J717" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27003,10 +28629,14 @@
         <v>545123.7602715789</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>70.04000000000001</v>
+      </c>
+      <c r="J718" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27040,10 +28670,14 @@
         <v>544580.2016715789</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>69.95999999999999</v>
+      </c>
+      <c r="J719" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27077,10 +28711,14 @@
         <v>547518.0976715789</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>69.61</v>
+      </c>
+      <c r="J720" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27114,10 +28752,14 @@
         <v>492522.1818715789</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>69.72</v>
+      </c>
+      <c r="J721" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27151,10 +28793,14 @@
         <v>408202.0305715789</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>69.64</v>
+      </c>
+      <c r="J722" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27188,10 +28834,14 @@
         <v>448433.9866715789</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="J723" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27225,10 +28875,14 @@
         <v>547236.5312715789</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>69.62</v>
+      </c>
+      <c r="J724" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27262,10 +28916,14 @@
         <v>500017.7343715788</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>69.70999999999999</v>
+      </c>
+      <c r="J725" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27299,10 +28957,14 @@
         <v>605185.4747715788</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>69.34999999999999</v>
+      </c>
+      <c r="J726" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27336,10 +28998,14 @@
         <v>599596.1798715788</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="J727" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27373,10 +29039,14 @@
         <v>647897.9364715788</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>69.34</v>
+      </c>
+      <c r="J728" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27410,10 +29080,14 @@
         <v>647897.9364715788</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>69.48</v>
+      </c>
+      <c r="J729" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27447,10 +29121,14 @@
         <v>647897.9364715788</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>69.48</v>
+      </c>
+      <c r="J730" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27484,10 +29162,14 @@
         <v>657104.7938715788</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>69.48</v>
+      </c>
+      <c r="J731" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27521,10 +29203,14 @@
         <v>389785.4019715788</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>69.58</v>
+      </c>
+      <c r="J732" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27558,10 +29244,14 @@
         <v>389785.4019715788</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>69.31</v>
+      </c>
+      <c r="J733" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27595,10 +29285,14 @@
         <v>389785.4019715788</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>69.31</v>
+      </c>
+      <c r="J734" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27632,10 +29326,14 @@
         <v>389785.4019715788</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>69.31</v>
+      </c>
+      <c r="J735" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27669,10 +29367,14 @@
         <v>389785.4019715788</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>69.31</v>
+      </c>
+      <c r="J736" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27706,10 +29408,14 @@
         <v>328728.9171715788</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>69.31</v>
+      </c>
+      <c r="J737" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27743,10 +29449,14 @@
         <v>498950.2581715788</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>69.12</v>
+      </c>
+      <c r="J738" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27780,10 +29490,14 @@
         <v>498950.2581715788</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>69.42</v>
+      </c>
+      <c r="J739" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27817,10 +29531,14 @@
         <v>669787.6986715788</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>69.42</v>
+      </c>
+      <c r="J740" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27854,10 +29572,14 @@
         <v>813271.9292715788</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>69.83</v>
+      </c>
+      <c r="J741" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27891,10 +29613,14 @@
         <v>808365.8097715788</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>70.11</v>
+      </c>
+      <c r="J742" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27928,10 +29654,14 @@
         <v>1053990.120871579</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>69.64</v>
+      </c>
+      <c r="J743" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27968,7 +29698,9 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28005,7 +29737,9 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28042,7 +29776,9 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28079,7 +29815,9 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28116,7 +29854,9 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28153,7 +29893,9 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28190,7 +29932,9 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28227,7 +29971,9 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28264,7 +30010,9 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28301,7 +30049,9 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28338,7 +30088,9 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28375,7 +30127,9 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28412,7 +30166,9 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28449,7 +30205,9 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28486,7 +30244,9 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28523,7 +30283,9 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28560,7 +30322,9 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28597,7 +30361,9 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28634,7 +30400,9 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28671,7 +30439,9 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28708,7 +30478,9 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28745,7 +30517,9 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28782,7 +30556,9 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28819,7 +30595,9 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28856,7 +30634,9 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28893,7 +30673,9 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28930,7 +30712,9 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28967,7 +30751,9 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29004,7 +30790,9 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29041,7 +30829,9 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29078,7 +30868,9 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29115,7 +30907,9 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29152,7 +30946,9 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29189,7 +30985,9 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29226,7 +31024,9 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29263,7 +31063,9 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29300,7 +31102,9 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29337,7 +31141,9 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29374,7 +31180,9 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29411,7 +31219,9 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29448,7 +31258,9 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29485,7 +31297,9 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29522,7 +31336,9 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29559,7 +31375,9 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29596,7 +31414,9 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29633,7 +31453,9 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29670,7 +31492,9 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29707,7 +31531,9 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29744,7 +31570,9 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29781,7 +31609,9 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29818,7 +31648,9 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29855,7 +31687,9 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29892,7 +31726,9 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29929,7 +31765,9 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29966,7 +31804,9 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30003,7 +31843,9 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30040,7 +31882,9 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30077,7 +31921,9 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30114,7 +31960,9 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30151,7 +31999,9 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30188,7 +32038,9 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30225,7 +32077,9 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30262,7 +32116,9 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30299,7 +32155,9 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30336,7 +32194,9 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30373,7 +32233,9 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30410,7 +32272,9 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30447,7 +32311,9 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30484,7 +32350,9 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30521,7 +32389,9 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30558,7 +32428,9 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30595,7 +32467,9 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30632,7 +32506,9 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30669,7 +32545,9 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30706,7 +32584,9 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30740,16 +32620,20 @@
         <v>4516564.122228129</v>
       </c>
       <c r="H819" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>65.31</v>
+      </c>
       <c r="K819" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L819" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L819" t="n">
+        <v>1</v>
+      </c>
       <c r="M819" t="inlineStr"/>
     </row>
     <row r="820">
@@ -30775,11 +32659,17 @@
         <v>4610337.873928129</v>
       </c>
       <c r="H820" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -30808,11 +32698,17 @@
         <v>3605640.843779189</v>
       </c>
       <c r="H821" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -30841,11 +32737,17 @@
         <v>3807129.490122999</v>
       </c>
       <c r="H822" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -30874,11 +32776,17 @@
         <v>4068450.591314879</v>
       </c>
       <c r="H823" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -30907,11 +32815,17 @@
         <v>4207772.311808399</v>
       </c>
       <c r="H824" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -30940,15 +32854,23 @@
         <v>5086655.496008399</v>
       </c>
       <c r="H825" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L825" t="n">
-        <v>1</v>
-      </c>
-      <c r="M825" t="inlineStr"/>
+        <v>1.147962792834176</v>
+      </c>
+      <c r="M825" t="n">
+        <v>1.009047692071768</v>
+      </c>
     </row>
     <row r="826">
       <c r="A826" s="1" t="n">
@@ -30973,7 +32895,7 @@
         <v>4869510.928795369</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -31006,7 +32928,7 @@
         <v>4516204.067695369</v>
       </c>
       <c r="H827" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -31039,7 +32961,7 @@
         <v>4706502.674795369</v>
       </c>
       <c r="H828" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -31072,7 +32994,7 @@
         <v>4538821.025095369</v>
       </c>
       <c r="H829" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -31105,7 +33027,7 @@
         <v>4394760.846795369</v>
       </c>
       <c r="H830" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -31138,7 +33060,7 @@
         <v>3969797.835465889</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -31171,7 +33093,7 @@
         <v>4006071.094365889</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -31204,7 +33126,7 @@
         <v>4163312.654965889</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -31237,7 +33159,7 @@
         <v>4429964.966765889</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -31270,7 +33192,7 @@
         <v>4186903.870165889</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -31303,7 +33225,7 @@
         <v>4231409.655165889</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -31336,7 +33258,7 @@
         <v>4151634.04346589</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -31369,7 +33291,7 @@
         <v>4229818.92356589</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -31402,7 +33324,7 @@
         <v>4242273.33586589</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -31435,7 +33357,7 @@
         <v>3943238.64713538</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -31468,7 +33390,7 @@
         <v>3845308.68533538</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -31501,7 +33423,7 @@
         <v>3784441.401935379</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -31534,7 +33456,7 @@
         <v>3567596.43173538</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -31567,7 +33489,7 @@
         <v>3561644.21543538</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -31600,7 +33522,7 @@
         <v>3646257.37733538</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -31633,7 +33555,7 @@
         <v>3778514.16122367</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -31666,7 +33588,7 @@
         <v>3760547.49052367</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -31699,7 +33621,7 @@
         <v>3775954.66822367</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -32062,7 +33984,7 @@
         <v>3514184.97722367</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -32095,7 +34017,7 @@
         <v>3928633.72922367</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -32128,7 +34050,7 @@
         <v>3915876.76302367</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -32161,7 +34083,7 @@
         <v>4031723.04942367</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -32194,7 +34116,7 @@
         <v>4143738.56862367</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -32227,7 +34149,7 @@
         <v>4161149.92922367</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -32260,7 +34182,7 @@
         <v>4161156.92922367</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -32293,7 +34215,7 @@
         <v>3889892.09572367</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -32326,7 +34248,7 @@
         <v>3889892.09572367</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -32359,7 +34281,7 @@
         <v>3879094.48332367</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -32392,7 +34314,7 @@
         <v>3879094.48332367</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -32425,7 +34347,7 @@
         <v>3827772.458223669</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -32458,7 +34380,7 @@
         <v>3876634.404723669</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -32491,7 +34413,7 @@
         <v>3825387.80652367</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -32557,7 +34479,7 @@
         <v>3578546.25742367</v>
       </c>
       <c r="H874" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -32590,7 +34512,7 @@
         <v>3578546.25742367</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -32623,7 +34545,7 @@
         <v>3414651.30732367</v>
       </c>
       <c r="H876" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -32656,7 +34578,7 @@
         <v>3415350.321423669</v>
       </c>
       <c r="H877" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -32689,7 +34611,7 @@
         <v>3425654.522823669</v>
       </c>
       <c r="H878" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -32722,7 +34644,7 @@
         <v>3425654.522823669</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -32755,7 +34677,7 @@
         <v>3422144.911623669</v>
       </c>
       <c r="H880" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -32788,7 +34710,7 @@
         <v>3494308.277649579</v>
       </c>
       <c r="H881" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -32887,7 +34809,7 @@
         <v>3403718.981949579</v>
       </c>
       <c r="H884" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -32920,7 +34842,7 @@
         <v>3403718.981949579</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -32953,7 +34875,7 @@
         <v>3403725.981949579</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -32986,7 +34908,7 @@
         <v>3537358.510324899</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -33019,7 +34941,7 @@
         <v>3521867.344424899</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -33052,7 +34974,7 @@
         <v>3497711.588924899</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -33085,7 +35007,7 @@
         <v>3498245.015324899</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -33217,7 +35139,7 @@
         <v>3347830.410124899</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -33283,7 +35205,7 @@
         <v>3340900.622124899</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -33448,7 +35370,7 @@
         <v>3439102.883424899</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -33481,7 +35403,7 @@
         <v>3438447.883424899</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -33514,7 +35436,7 @@
         <v>3438163.192024899</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -33547,7 +35469,7 @@
         <v>3438163.192024899</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -33679,7 +35601,7 @@
         <v>3593993.466824899</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -33745,7 +35667,7 @@
         <v>3632812.83254174</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -33811,7 +35733,7 @@
         <v>3634140.84369349</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -33877,7 +35799,7 @@
         <v>3630320.19939349</v>
       </c>
       <c r="H914" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -33910,7 +35832,7 @@
         <v>3630320.19939349</v>
       </c>
       <c r="H915" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -33943,7 +35865,7 @@
         <v>3615653.96719349</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -34009,7 +35931,7 @@
         <v>3598845.56789349</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -34042,7 +35964,7 @@
         <v>3587290.22589349</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -34075,7 +35997,7 @@
         <v>3639725.01109349</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -34108,7 +36030,7 @@
         <v>3639709.01109349</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -34141,7 +36063,7 @@
         <v>3664533.63709349</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -34174,7 +36096,7 @@
         <v>3663801.63709349</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -34207,7 +36129,7 @@
         <v>3663856.06929349</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -34240,7 +36162,7 @@
         <v>3663886.44939349</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -34273,7 +36195,7 @@
         <v>3687463.74629349</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -34306,7 +36228,7 @@
         <v>3676499.920046791</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -34339,7 +36261,7 @@
         <v>3806494.61254679</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -34372,7 +36294,7 @@
         <v>3806494.61254679</v>
       </c>
       <c r="H929" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -34405,7 +36327,7 @@
         <v>3884836.33874679</v>
       </c>
       <c r="H930" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -34438,7 +36360,7 @@
         <v>3884640.57794679</v>
       </c>
       <c r="H931" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -34471,7 +36393,7 @@
         <v>3884244.18794679</v>
       </c>
       <c r="H932" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -34504,7 +36426,7 @@
         <v>3896928.70024679</v>
       </c>
       <c r="H933" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -34537,7 +36459,7 @@
         <v>3887320.486346791</v>
       </c>
       <c r="H934" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -34570,7 +36492,7 @@
         <v>3889760.52814679</v>
       </c>
       <c r="H935" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -34603,7 +36525,7 @@
         <v>3889760.52814679</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -34636,7 +36558,7 @@
         <v>3869834.07864679</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -34669,7 +36591,7 @@
         <v>3889654.69974679</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -34702,7 +36624,7 @@
         <v>3889104.18984679</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -34735,7 +36657,7 @@
         <v>3887052.46064679</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -34768,7 +36690,7 @@
         <v>3886388.463046791</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -34801,7 +36723,7 @@
         <v>3880629.52014679</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -34834,7 +36756,7 @@
         <v>3881635.20854679</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -34867,7 +36789,7 @@
         <v>3902133.09594679</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -34900,7 +36822,7 @@
         <v>3902133.09594679</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -34933,7 +36855,7 @@
         <v>3900113.37964679</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -34966,7 +36888,7 @@
         <v>3918346.87484679</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -34999,7 +36921,7 @@
         <v>3917027.65304679</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -35032,7 +36954,7 @@
         <v>3926083.85454679</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -35065,7 +36987,7 @@
         <v>3960066.92494679</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -35098,7 +37020,7 @@
         <v>3955684.34024679</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -35131,7 +37053,7 @@
         <v>3936511.18114679</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -35164,7 +37086,7 @@
         <v>3966587.48574679</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -35197,7 +37119,7 @@
         <v>3966587.48574679</v>
       </c>
       <c r="H954" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -35230,7 +37152,7 @@
         <v>3974511.19404679</v>
       </c>
       <c r="H955" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -35263,7 +37185,7 @@
         <v>3972033.28124679</v>
       </c>
       <c r="H956" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -35296,7 +37218,7 @@
         <v>3890053.43054679</v>
       </c>
       <c r="H957" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -35329,7 +37251,7 @@
         <v>3901260.295546791</v>
       </c>
       <c r="H958" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -35362,7 +37284,7 @@
         <v>3703295.46474679</v>
       </c>
       <c r="H959" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -35395,7 +37317,7 @@
         <v>3710578.122046791</v>
       </c>
       <c r="H960" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -35428,7 +37350,7 @@
         <v>3569721.576146791</v>
       </c>
       <c r="H961" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -35461,7 +37383,7 @@
         <v>3569674.628346791</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -35494,7 +37416,7 @@
         <v>3746729.67174679</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -35527,7 +37449,7 @@
         <v>3660781.42114679</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -35560,7 +37482,7 @@
         <v>3660781.42114679</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -35593,7 +37515,7 @@
         <v>3655665.22744679</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -35626,7 +37548,7 @@
         <v>3756547.77184679</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -35659,7 +37581,7 @@
         <v>3765316.19584679</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -35692,7 +37614,7 @@
         <v>3767590.58894679</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -35725,7 +37647,7 @@
         <v>3794455.87024679</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -35758,7 +37680,7 @@
         <v>3794455.87024679</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -35791,7 +37713,7 @@
         <v>3794455.87024679</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -35824,7 +37746,7 @@
         <v>3794455.87024679</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -35857,7 +37779,7 @@
         <v>3832324.05534679</v>
       </c>
       <c r="H974" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -35890,7 +37812,7 @@
         <v>3831462.05534679</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -35923,7 +37845,7 @@
         <v>3844541.19594679</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -35956,7 +37878,7 @@
         <v>3854869.90894679</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -35989,7 +37911,7 @@
         <v>3854869.90894679</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -36022,7 +37944,7 @@
         <v>3863010.61834679</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -36055,7 +37977,7 @@
         <v>3862579.61834679</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -36088,7 +38010,7 @@
         <v>3681240.80974679</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -36121,7 +38043,7 @@
         <v>3684556.25484679</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -36154,7 +38076,7 @@
         <v>3738309.221546791</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -36187,7 +38109,7 @@
         <v>3728582.533246791</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -36220,7 +38142,7 @@
         <v>3690204.47024679</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -36253,7 +38175,7 @@
         <v>3690204.47024679</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -36286,7 +38208,7 @@
         <v>3680121.505846791</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -36319,7 +38241,7 @@
         <v>3680121.505846791</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -36352,7 +38274,7 @@
         <v>3674423.046346791</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -36385,7 +38307,7 @@
         <v>3674423.046346791</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -36418,7 +38340,7 @@
         <v>3601490.231946791</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -36451,7 +38373,7 @@
         <v>3436582.294746791</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -36484,7 +38406,7 @@
         <v>3363002.76984679</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -36517,7 +38439,7 @@
         <v>3363002.76984679</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -36550,7 +38472,7 @@
         <v>3390124.44284679</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -36583,7 +38505,7 @@
         <v>3353571.36504679</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -36616,7 +38538,7 @@
         <v>3354844.30484679</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -36649,7 +38571,7 @@
         <v>3354844.30484679</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -36682,7 +38604,7 @@
         <v>3354844.30484679</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -36715,7 +38637,7 @@
         <v>3284447.96404679</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -36748,7 +38670,7 @@
         <v>3336531.29324679</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -36781,7 +38703,7 @@
         <v>3336048.29324679</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -36814,7 +38736,7 @@
         <v>3276234.53374679</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -36847,7 +38769,7 @@
         <v>3193713.02314679</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -36880,7 +38802,7 @@
         <v>3184762.34934679</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -36913,7 +38835,7 @@
         <v>3184762.34934679</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -36946,7 +38868,7 @@
         <v>3184762.34934679</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -36979,7 +38901,7 @@
         <v>3178293.55924679</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -37012,7 +38934,7 @@
         <v>3170295.42074679</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -37045,7 +38967,7 @@
         <v>3218433.72004679</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -37078,7 +39000,7 @@
         <v>3214622.56354679</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -37111,7 +39033,7 @@
         <v>3196711.74144679</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -37144,7 +39066,7 @@
         <v>3199515.21775741</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -37177,7 +39099,7 @@
         <v>3185236.72815741</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -37210,7 +39132,7 @@
         <v>3193031.13297601</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -37243,7 +39165,7 @@
         <v>3307698.632076011</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -37276,7 +39198,7 @@
         <v>3339116.412176011</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -37309,7 +39231,7 @@
         <v>3345185.421476011</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -37342,7 +39264,7 @@
         <v>3324263.005276011</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -37375,7 +39297,7 @@
         <v>3334912.138976011</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -37584,6 +39506,6 @@
       <c r="M1026" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>